--- a/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_01/Prep for optimal use.xlsx
+++ b/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_01/Prep for optimal use.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10728"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emgarcia/_________Course Production/_______2022/Q3 2022/Excel Managing and Analyzing Data (2022)/2_Project/Exercise Files/Chap 03/03_01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/georgizaykov/Desktop/Data-Science-Projects/Ex_Files_Excel_Managing_and_Analyzing_Data/Exercise Files/Chap 03/03_01/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5087E7F-7D4A-A149-948F-6C8BE78180E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6130CEC2-A773-BF48-BBAF-32FA111F7CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1340" windowWidth="22140" windowHeight="12540" activeTab="1" xr2:uid="{2CA2101D-2162-411B-B7F9-97AA2F9F02B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{2CA2101D-2162-411B-B7F9-97AA2F9F02B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Barco" sheetId="1" r:id="rId1"/>
@@ -421,6 +421,9 @@
     <filterColumn colId="7" hiddenButton="1"/>
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J15">
+    <sortCondition descending="1" ref="J4:J15"/>
+  </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{0F1AB368-0DAB-4AC5-995E-69243C22B1C2}" name="County"/>
     <tableColumn id="2" xr3:uid="{4E1A1EA3-4C1A-4DF2-B82F-3ECDAD11E6C0}" name="City"/>
@@ -695,7 +698,7 @@
   <dimension ref="B1:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -838,8 +841,8 @@
   </sheetPr>
   <dimension ref="B1:I6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -997,7 +1000,7 @@
   <dimension ref="B1:I6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1006,9 +1009,9 @@
     <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1162,8 +1165,8 @@
   </sheetPr>
   <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -1207,31 +1210,28 @@
     </row>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1919</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>120876</v>
+        <v>814027</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1239,204 +1239,204 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1888</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>11311</v>
+        <v>276029</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3">
-        <v>1970</v>
+        <v>1912</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J4">
-        <v>42061</v>
+        <v>126252</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>1948</v>
+        <v>1919</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>72428</v>
+        <v>120876</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D6" s="3">
-        <v>1873</v>
+        <v>1895</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>34502</v>
+        <v>85021</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1948</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J7">
-        <v>276029</v>
+        <v>72428</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D8" s="3">
-        <v>1912</v>
+        <v>1984</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>3939</v>
+        <v>54828</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>35</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1919</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>814027</v>
+        <v>53913</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
-        <v>1895</v>
+        <v>1970</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
       </c>
       <c r="J10">
-        <v>85021</v>
+        <v>42061</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
@@ -1470,97 +1470,100 @@
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D12" s="3">
-        <v>1837</v>
+        <v>1873</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>1388</v>
+        <v>34502</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3">
-        <v>1919</v>
+        <v>1888</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J13">
-        <v>53913</v>
+        <v>11311</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="D14" s="3">
-        <v>1984</v>
+        <v>1912</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>54828</v>
+        <v>3939</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D15" s="3">
-        <v>1912</v>
+        <v>1837</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J15">
-        <v>126252</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
